--- a/data/trans_orig/IPAQ_MET-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>93677</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77334</v>
+        <v>76518</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112972</v>
+        <v>111644</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.138821477002646</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1146024950919131</v>
+        <v>0.1133938124354532</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1674157546881634</v>
+        <v>0.1654476356275576</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -763,19 +763,19 @@
         <v>33018</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22510</v>
+        <v>23076</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45110</v>
+        <v>44856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0490726947191293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03345549657237736</v>
+        <v>0.03429590888012644</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06704477348589746</v>
+        <v>0.06666709450966214</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -784,19 +784,19 @@
         <v>126695</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>107258</v>
+        <v>107681</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>148766</v>
+        <v>148903</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09401238433368829</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07958989113024091</v>
+        <v>0.07990357582111228</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1103898005724387</v>
+        <v>0.1104921079562695</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>340957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>314500</v>
+        <v>316642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>365722</v>
+        <v>364676</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5052713738421838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4660643984956414</v>
+        <v>0.4692383234280381</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5419706483431168</v>
+        <v>0.5404211017749093</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>314</v>
@@ -834,19 +834,19 @@
         <v>310997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>287147</v>
+        <v>284704</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>335107</v>
+        <v>337629</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4622166815672488</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.426769891474506</v>
+        <v>0.4231390196086659</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4980488827944362</v>
+        <v>0.5017980593751927</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>644</v>
@@ -855,19 +855,19 @@
         <v>651955</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>614280</v>
+        <v>614430</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>687785</v>
+        <v>683920</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4837753529838</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4558194063572019</v>
+        <v>0.4559310533613036</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.51036273882866</v>
+        <v>0.5074949051005079</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>240166</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>214032</v>
+        <v>214590</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>265816</v>
+        <v>264460</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3559071491551702</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3171778051137062</v>
+        <v>0.318005766440522</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3939187701967899</v>
+        <v>0.3919093338336702</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>317</v>
@@ -905,19 +905,19 @@
         <v>328824</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>304671</v>
+        <v>303292</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>354034</v>
+        <v>354387</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4887106237136219</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4528147196604274</v>
+        <v>0.4507641060686739</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5261788253951136</v>
+        <v>0.5267044358387204</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>549</v>
@@ -926,19 +926,19 @@
         <v>568990</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>532369</v>
+        <v>534874</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>605206</v>
+        <v>605843</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4222122626825117</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3950382307450605</v>
+        <v>0.3968972539649278</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4490858024916817</v>
+        <v>0.4495585816129301</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>122813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>102318</v>
+        <v>102873</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>145744</v>
+        <v>145142</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1201190721449967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1000736499101485</v>
+        <v>0.1006161898184781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.142546992062701</v>
+        <v>0.1419577776969296</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -1051,19 +1051,19 @@
         <v>47586</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36302</v>
+        <v>36355</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62874</v>
+        <v>63390</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04562764292332711</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03480855961258537</v>
+        <v>0.03485868116790832</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06028655001581409</v>
+        <v>0.06078165367368732</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>158</v>
@@ -1072,19 +1072,19 @@
         <v>170399</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>144080</v>
+        <v>144564</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>197143</v>
+        <v>199658</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0825039918943304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06976085241180516</v>
+        <v>0.06999487948093529</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09545308831049078</v>
+        <v>0.09667038740942842</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>504976</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>472064</v>
+        <v>470414</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>537151</v>
+        <v>536708</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4938977214313161</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4617069699147603</v>
+        <v>0.4600940105996939</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5253661632354708</v>
+        <v>0.5249333772771398</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>441</v>
@@ -1122,19 +1122,19 @@
         <v>468243</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>437993</v>
+        <v>435994</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>502298</v>
+        <v>501717</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4489765268989779</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4199704803592322</v>
+        <v>0.4180544897762796</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4816295698348993</v>
+        <v>0.481072962986274</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>906</v>
@@ -1143,19 +1143,19 @@
         <v>973220</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>923146</v>
+        <v>924136</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1020673</v>
+        <v>1016491</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4712143824895771</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4469696167768175</v>
+        <v>0.4474490062163997</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4941902745314126</v>
+        <v>0.4921654400684723</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>394641</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>361302</v>
+        <v>364462</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>426581</v>
+        <v>429111</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3859832064236873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3533751958824271</v>
+        <v>0.3564657749306857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.417222046479103</v>
+        <v>0.4196969629987179</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>489</v>
@@ -1193,19 +1193,19 @@
         <v>527084</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>493425</v>
+        <v>494881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>559157</v>
+        <v>560914</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.505395830177695</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4731223491809243</v>
+        <v>0.4745180338161357</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5361495533831513</v>
+        <v>0.5378342801359992</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>864</v>
@@ -1214,19 +1214,19 @@
         <v>921725</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>875542</v>
+        <v>875210</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>965919</v>
+        <v>968262</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4462816256160925</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.423920751339484</v>
+        <v>0.4237598747819121</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4676796408025474</v>
+        <v>0.4688139469485701</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>113872</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>92580</v>
+        <v>95204</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>134644</v>
+        <v>135117</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1499196237465674</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1218881745042749</v>
+        <v>0.1253424745235615</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1772675337361533</v>
+        <v>0.1778897932093306</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -1339,19 +1339,19 @@
         <v>42100</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30715</v>
+        <v>30731</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55142</v>
+        <v>56074</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05362985164934885</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03912737754509661</v>
+        <v>0.03914714734527368</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0702440309681986</v>
+        <v>0.07143124702412061</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>146</v>
@@ -1360,19 +1360,19 @@
         <v>155972</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>133678</v>
+        <v>134647</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>181266</v>
+        <v>180836</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1009811780869148</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08654760407863782</v>
+        <v>0.08717466389599246</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1173571804845258</v>
+        <v>0.1170789939031061</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>391020</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>361636</v>
+        <v>359995</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>418879</v>
+        <v>417878</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5148031194382292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4761175616354101</v>
+        <v>0.4739569674823785</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5514817814426625</v>
+        <v>0.5501634174185248</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>388</v>
@@ -1410,19 +1410,19 @@
         <v>408573</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>380115</v>
+        <v>379860</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>435138</v>
+        <v>436708</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5204680963866036</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4842158248578811</v>
+        <v>0.4838908054862895</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5543078125260129</v>
+        <v>0.5563084008846133</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>744</v>
@@ -1431,19 +1431,19 @@
         <v>799593</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>754958</v>
+        <v>756456</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>839667</v>
+        <v>841390</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5176822950818406</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4887839458286566</v>
+        <v>0.4897537893980682</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5436277600567122</v>
+        <v>0.5447433329086862</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>254661</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>229401</v>
+        <v>230517</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>282601</v>
+        <v>284399</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3352772568152033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3020213864803603</v>
+        <v>0.3034908426019847</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3720622878788211</v>
+        <v>0.3744297997426718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>307</v>
@@ -1481,19 +1481,19 @@
         <v>334338</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>306556</v>
+        <v>307180</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>362035</v>
+        <v>364258</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4259020519640475</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3905122076520411</v>
+        <v>0.3913072232382898</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.461184950963671</v>
+        <v>0.4640170292380417</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>542</v>
@@ -1502,19 +1502,19 @@
         <v>588998</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>552472</v>
+        <v>546535</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>632816</v>
+        <v>627851</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3813365268312445</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3576880514470291</v>
+        <v>0.3538442780546759</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4097052978752637</v>
+        <v>0.4064910749282726</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>146173</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125095</v>
+        <v>124646</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>170087</v>
+        <v>168552</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1559062629228701</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1334253143718421</v>
+        <v>0.1329464354767383</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.181413034281067</v>
+        <v>0.1797755205565004</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -1627,19 +1627,19 @@
         <v>74690</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59244</v>
+        <v>60000</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93328</v>
+        <v>95473</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07155705826722453</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05675939015404793</v>
+        <v>0.05748322596265427</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08941383182833526</v>
+        <v>0.0914685123537797</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>213</v>
@@ -1648,19 +1648,19 @@
         <v>220862</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>193929</v>
+        <v>195467</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>253321</v>
+        <v>253738</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1114708493046089</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09787753396727941</v>
+        <v>0.09865365342348846</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.127853139171763</v>
+        <v>0.1280636209078103</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>469462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>436239</v>
+        <v>438351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>501567</v>
+        <v>498361</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5007233235416413</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4652883665474281</v>
+        <v>0.4675408585336183</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5349668877083009</v>
+        <v>0.5315465954911296</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>487</v>
@@ -1698,19 +1698,19 @@
         <v>520980</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>487276</v>
+        <v>485925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>554157</v>
+        <v>552859</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4991283333355555</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4668384029905552</v>
+        <v>0.4655439315144308</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5309143339026275</v>
+        <v>0.5296703531115291</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>952</v>
@@ -1719,19 +1719,19 @@
         <v>990441</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>943949</v>
+        <v>946005</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1037688</v>
+        <v>1034302</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4998830779244616</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4764182269542271</v>
+        <v>0.4774557858384214</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5237287673286259</v>
+        <v>0.5220196772986117</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>321933</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>291895</v>
+        <v>292767</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>351646</v>
+        <v>352361</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3433704135354886</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.311332257854473</v>
+        <v>0.3122620105902331</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3750618875631372</v>
+        <v>0.3758250857207083</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>403</v>
@@ -1769,19 +1769,19 @@
         <v>448110</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>416312</v>
+        <v>417021</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>483010</v>
+        <v>483255</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.42931460839722</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3988507348957445</v>
+        <v>0.3995301902064367</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4627509239485108</v>
+        <v>0.4629860750907444</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>726</v>
@@ -1790,19 +1790,19 @@
         <v>770042</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>727908</v>
+        <v>725855</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>814313</v>
+        <v>819136</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3886460727709295</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3673806039003345</v>
+        <v>0.3663442611343104</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4109896918690996</v>
+        <v>0.4134240820607146</v>
       </c>
     </row>
     <row r="19">
@@ -1894,19 +1894,19 @@
         <v>476535</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>436527</v>
+        <v>437981</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>518459</v>
+        <v>516767</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1403905067155106</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1286040901304634</v>
+        <v>0.1290324943362736</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1527417490379025</v>
+        <v>0.1522432629283079</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -1915,19 +1915,19 @@
         <v>197393</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>169849</v>
+        <v>173590</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>224760</v>
+        <v>227121</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05568941290022587</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04791853468411063</v>
+        <v>0.04897385118138771</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06341018957301164</v>
+        <v>0.06407620771999326</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>642</v>
@@ -1936,19 +1936,19 @@
         <v>673928</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>626394</v>
+        <v>621450</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>728650</v>
+        <v>724559</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09712328630252978</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09027292835624214</v>
+        <v>0.08956043061694993</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1050095672939261</v>
+        <v>0.1044199304806835</v>
       </c>
     </row>
     <row r="21">
@@ -1965,19 +1965,19 @@
         <v>1706415</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1652342</v>
+        <v>1651772</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1768155</v>
+        <v>1771942</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5027221329815735</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4867920150423423</v>
+        <v>0.4866240058952113</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5209113061283316</v>
+        <v>0.5220269654869019</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1630</v>
@@ -1986,19 +1986,19 @@
         <v>1708794</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1653649</v>
+        <v>1643997</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1773493</v>
+        <v>1767301</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4820915424225908</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.466533810678934</v>
+        <v>0.4638107737053301</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5003446339408808</v>
+        <v>0.4985977785511068</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3246</v>
@@ -2007,19 +2007,19 @@
         <v>3415209</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3340512</v>
+        <v>3321300</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3503237</v>
+        <v>3494369</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.492183564130124</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4814187122385455</v>
+        <v>0.4786499625110557</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5048697302331341</v>
+        <v>0.5035917988574045</v>
       </c>
     </row>
     <row r="22">
@@ -2036,19 +2036,19 @@
         <v>1211401</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1159778</v>
+        <v>1153123</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1272429</v>
+        <v>1267476</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3568873603029158</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3416790896614441</v>
+        <v>0.339718245434453</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.374866767686324</v>
+        <v>0.373407581322073</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1516</v>
@@ -2057,19 +2057,19 @@
         <v>1638355</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1580435</v>
+        <v>1580230</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1696016</v>
+        <v>1702017</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4622190446771833</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4458785656051979</v>
+        <v>0.4458206462063441</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4784865185513294</v>
+        <v>0.4801795585244058</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2681</v>
@@ -2078,19 +2078,19 @@
         <v>2849755</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2761622</v>
+        <v>2773784</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2926814</v>
+        <v>2941347</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4106931495673462</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3979918145848292</v>
+        <v>0.3997444656883644</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4217984585909653</v>
+        <v>0.4238929555696783</v>
       </c>
     </row>
     <row r="23">
@@ -2422,19 +2422,19 @@
         <v>175877</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>150822</v>
+        <v>151639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>200448</v>
+        <v>201733</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2546326433298223</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2183575639611221</v>
+        <v>0.2195408414236183</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2902057596965131</v>
+        <v>0.2920667532097407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>232</v>
@@ -2443,19 +2443,19 @@
         <v>130538</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>114492</v>
+        <v>112790</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148664</v>
+        <v>149594</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1778010521920452</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.155945108166746</v>
+        <v>0.1536278379624457</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2024905226355767</v>
+        <v>0.2037564374653255</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>408</v>
@@ -2464,19 +2464,19 @@
         <v>306415</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>277671</v>
+        <v>278367</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>337559</v>
+        <v>337183</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2150448661786983</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1948721514992321</v>
+        <v>0.1953606948608632</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2369022366032076</v>
+        <v>0.2366383003978911</v>
       </c>
     </row>
     <row r="5">
@@ -2493,19 +2493,19 @@
         <v>299806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273345</v>
+        <v>271452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>328732</v>
+        <v>329289</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4340543573273629</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3957454219877402</v>
+        <v>0.3930037622663421</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.475932835736122</v>
+        <v>0.4767403919865164</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>541</v>
@@ -2514,19 +2514,19 @@
         <v>335275</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>313081</v>
+        <v>314574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>355986</v>
+        <v>357617</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4566665437740913</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4264366713333354</v>
+        <v>0.4284701663126571</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4848762341159975</v>
+        <v>0.4870965160146443</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>871</v>
@@ -2535,19 +2535,19 @@
         <v>635081</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>593698</v>
+        <v>597195</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>671451</v>
+        <v>667582</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4457053746328292</v>
+        <v>0.4457053746328293</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4166626870746867</v>
+        <v>0.4191168501493412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4712300983942093</v>
+        <v>0.4685152545924425</v>
       </c>
     </row>
     <row r="6">
@@ -2564,19 +2564,19 @@
         <v>215027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>188341</v>
+        <v>189806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>243358</v>
+        <v>243822</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3113129993428148</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2726768398293906</v>
+        <v>0.2747988933879714</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3523306062996644</v>
+        <v>0.3530024401883352</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>468</v>
@@ -2585,19 +2585,19 @@
         <v>268367</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>248061</v>
+        <v>244576</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>290873</v>
+        <v>290209</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3655324040338635</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3378742621652115</v>
+        <v>0.3331281190644308</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3961879808607834</v>
+        <v>0.3952834606332344</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>692</v>
@@ -2606,19 +2606,19 @@
         <v>483393</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>453955</v>
+        <v>451699</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>517928</v>
+        <v>518992</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3392497591884726</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3185900143156621</v>
+        <v>0.317006171219499</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3634864561068324</v>
+        <v>0.3642334402612497</v>
       </c>
     </row>
     <row r="7">
@@ -2710,19 +2710,19 @@
         <v>267551</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>233225</v>
+        <v>235518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>299622</v>
+        <v>299780</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2550738362312725</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2223486825812102</v>
+        <v>0.2245340511674827</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2856486123884493</v>
+        <v>0.2857992355990205</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>269</v>
@@ -2731,19 +2731,19 @@
         <v>179598</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>159333</v>
+        <v>158325</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>203921</v>
+        <v>201282</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1676179192093422</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1487043189247466</v>
+        <v>0.1477636090732019</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1903178071136589</v>
+        <v>0.1878548406146849</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>494</v>
@@ -2752,19 +2752,19 @@
         <v>447150</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>406777</v>
+        <v>404807</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>489833</v>
+        <v>490648</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2108806907566887</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1918404007157542</v>
+        <v>0.190911513260333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2310108257107797</v>
+        <v>0.2313950108127834</v>
       </c>
     </row>
     <row r="9">
@@ -2781,19 +2781,19 @@
         <v>475670</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>438871</v>
+        <v>441683</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>511666</v>
+        <v>512988</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4534867936610462</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4184034587192989</v>
+        <v>0.4210850093760323</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4878040498566631</v>
+        <v>0.4890639699426145</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>715</v>
@@ -2802,19 +2802,19 @@
         <v>521850</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>489567</v>
+        <v>490613</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>550395</v>
+        <v>550530</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4870394972089022</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4569096376858527</v>
+        <v>0.4578863090638995</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5136798586384788</v>
+        <v>0.5138057843637976</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1159</v>
@@ -2823,19 +2823,19 @@
         <v>997520</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>948892</v>
+        <v>949707</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1046202</v>
+        <v>1043365</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4704416156953763</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.447508012479217</v>
+        <v>0.4478925411540892</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4934004697762335</v>
+        <v>0.4920627569071124</v>
       </c>
     </row>
     <row r="10">
@@ -2852,19 +2852,19 @@
         <v>305696</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>275263</v>
+        <v>275946</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>339879</v>
+        <v>339235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2914393701076814</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2624255641979343</v>
+        <v>0.2630774693132498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3240282777838731</v>
+        <v>0.3234149664197194</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>533</v>
@@ -2873,19 +2873,19 @@
         <v>370026</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>343425</v>
+        <v>342812</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>401150</v>
+        <v>397007</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3453425835817556</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3205163075929607</v>
+        <v>0.3199443602735469</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3743906652626994</v>
+        <v>0.370524406914179</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>828</v>
@@ -2894,19 +2894,19 @@
         <v>675721</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>630891</v>
+        <v>629678</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>719805</v>
+        <v>715320</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3186776935479348</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2975353669414067</v>
+        <v>0.2969631179040735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3394678992937702</v>
+        <v>0.3373527354069508</v>
       </c>
     </row>
     <row r="11">
@@ -2998,19 +2998,19 @@
         <v>229552</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>200574</v>
+        <v>201557</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>259922</v>
+        <v>262129</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2858420041184063</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2497577383597839</v>
+        <v>0.2509819218139346</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3236593811766256</v>
+        <v>0.3264079841482192</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>221</v>
@@ -3019,19 +3019,19 @@
         <v>168871</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>148151</v>
+        <v>148824</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>190171</v>
+        <v>192092</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2079024846714706</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1823943201416587</v>
+        <v>0.1832220155856746</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2341260701415622</v>
+        <v>0.2364916173246031</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>408</v>
@@ -3040,19 +3040,19 @@
         <v>398423</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>363594</v>
+        <v>363442</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>436434</v>
+        <v>437035</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2466506402329698</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2250895150073957</v>
+        <v>0.2249949571403727</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2701823649689397</v>
+        <v>0.2705541590518438</v>
       </c>
     </row>
     <row r="13">
@@ -3069,19 +3069,19 @@
         <v>333551</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>304191</v>
+        <v>300769</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>368387</v>
+        <v>365809</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4153427590795227</v>
+        <v>0.4153427590795226</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.378784249746027</v>
+        <v>0.3745220176831358</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4587218805430359</v>
+        <v>0.4555109886660935</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>403</v>
@@ -3090,19 +3090,19 @@
         <v>323402</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>297587</v>
+        <v>294355</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>350861</v>
+        <v>350407</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3981510496474338</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3663693338012388</v>
+        <v>0.3623908118029688</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4319571699707272</v>
+        <v>0.4313978579322799</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>683</v>
@@ -3111,19 +3111,19 @@
         <v>656952</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>615798</v>
+        <v>612762</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>697856</v>
+        <v>700280</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.406698023456994</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3812204305258167</v>
+        <v>0.3793410484434271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4320201245311237</v>
+        <v>0.4335207830974145</v>
       </c>
     </row>
     <row r="14">
@@ -3140,19 +3140,19 @@
         <v>239970</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>211009</v>
+        <v>211275</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>268417</v>
+        <v>270893</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.298815236802071</v>
+        <v>0.2988152368020711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2627524636013219</v>
+        <v>0.263083437938106</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.334236949824542</v>
+        <v>0.3373209279503919</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>423</v>
@@ -3161,19 +3161,19 @@
         <v>319987</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>295051</v>
+        <v>296327</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>346296</v>
+        <v>347792</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3939464656810956</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3632480271017908</v>
+        <v>0.3648187978846321</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4263363882296818</v>
+        <v>0.4281783010896664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>632</v>
@@ -3182,19 +3182,19 @@
         <v>559957</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>521863</v>
+        <v>520337</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>599345</v>
+        <v>601717</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3466513363100361</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3230687731398526</v>
+        <v>0.3221236805764756</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3710349286929932</v>
+        <v>0.3725036345539912</v>
       </c>
     </row>
     <row r="15">
@@ -3286,19 +3286,19 @@
         <v>283229</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>251656</v>
+        <v>252156</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>315363</v>
+        <v>316460</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2860715578473661</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2541816417138757</v>
+        <v>0.2546874631324517</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.318528735104835</v>
+        <v>0.3196368317942407</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>243</v>
@@ -3307,19 +3307,19 @@
         <v>177802</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>156343</v>
+        <v>157036</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>201548</v>
+        <v>202063</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1588878033820647</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1397118841291473</v>
+        <v>0.1403305610648669</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1801074323386354</v>
+        <v>0.1805682956098594</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>508</v>
@@ -3328,19 +3328,19 @@
         <v>461031</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>422491</v>
+        <v>422875</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>501154</v>
+        <v>502228</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2185908119939129</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2003177974638872</v>
+        <v>0.200500026240472</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2376145258234336</v>
+        <v>0.2381237660055683</v>
       </c>
     </row>
     <row r="17">
@@ -3357,19 +3357,19 @@
         <v>495645</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>461804</v>
+        <v>462728</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>531101</v>
+        <v>528744</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5006199051391075</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4664397625810314</v>
+        <v>0.4673729044180598</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5364321004183684</v>
+        <v>0.5340513510978788</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>771</v>
@@ -3378,19 +3378,19 @@
         <v>548054</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>519149</v>
+        <v>516490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>581135</v>
+        <v>576187</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.48975329952134</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4639231630989692</v>
+        <v>0.4615465393532887</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5193155608757004</v>
+        <v>0.5148935031989297</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1277</v>
@@ -3399,19 +3399,19 @@
         <v>1043699</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>998698</v>
+        <v>999967</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1089798</v>
+        <v>1089056</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4948543366113886</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4735176559534336</v>
+        <v>0.4741192656807665</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5167113944494237</v>
+        <v>0.51635973274334</v>
       </c>
     </row>
     <row r="18">
@@ -3428,19 +3428,19 @@
         <v>211189</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>185762</v>
+        <v>187044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>240490</v>
+        <v>238859</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2133085370135265</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.187627007112356</v>
+        <v>0.1889219827617169</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2429037980002575</v>
+        <v>0.2412568348395102</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>548</v>
@@ -3449,19 +3449,19 @@
         <v>393185</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>364078</v>
+        <v>366726</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>423754</v>
+        <v>421281</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3513588970965954</v>
+        <v>0.3513588970965953</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3253482123107787</v>
+        <v>0.3277148223818772</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3786758880140708</v>
+        <v>0.376465864822747</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>783</v>
@@ -3470,19 +3470,19 @@
         <v>604374</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>564185</v>
+        <v>567241</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>642103</v>
+        <v>648943</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2865548513946986</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2674997769609537</v>
+        <v>0.2689486340866142</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3044436520582754</v>
+        <v>0.3076868153812713</v>
       </c>
     </row>
     <row r="19">
@@ -3574,19 +3574,19 @@
         <v>956209</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>893638</v>
+        <v>896300</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1011882</v>
+        <v>1012211</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2706690059288557</v>
+        <v>0.2706690059288558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2529573915460782</v>
+        <v>0.2537109369915268</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2864280216038383</v>
+        <v>0.2865210698757321</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>965</v>
@@ -3595,19 +3595,19 @@
         <v>656809</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>620830</v>
+        <v>612203</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>702598</v>
+        <v>697856</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1757604800294488</v>
+        <v>0.1757604800294487</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1661325182115049</v>
+        <v>0.1638240118585944</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1880135284967336</v>
+        <v>0.1867445756792352</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1818</v>
@@ -3616,19 +3616,19 @@
         <v>1613018</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1548330</v>
+        <v>1543421</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1698733</v>
+        <v>1681346</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2218818445557238</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2129835114569181</v>
+        <v>0.2123082676928461</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.23367255932033</v>
+        <v>0.2312808462134314</v>
       </c>
     </row>
     <row r="21">
@@ -3645,19 +3645,19 @@
         <v>1604671</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1544835</v>
+        <v>1541776</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1672610</v>
+        <v>1669849</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4542256211340536</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4372882075336981</v>
+        <v>0.4364223384957678</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4734566789301582</v>
+        <v>0.4726751720812961</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2430</v>
@@ -3666,19 +3666,19 @@
         <v>1728581</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1673328</v>
+        <v>1677356</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1783791</v>
+        <v>1782806</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4625642804885985</v>
+        <v>0.4625642804885984</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4477787018246895</v>
+        <v>0.4488564214518185</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4773382943880471</v>
+        <v>0.4770745486781964</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3990</v>
@@ -3687,19 +3687,19 @@
         <v>3333252</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3240619</v>
+        <v>3256386</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3412147</v>
+        <v>3419001</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4585120592144105</v>
+        <v>0.4585120592144104</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4457697213797981</v>
+        <v>0.4479384803622805</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4693646119639468</v>
+        <v>0.4703073294610052</v>
       </c>
     </row>
     <row r="22">
@@ -3716,19 +3716,19 @@
         <v>971882</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>912047</v>
+        <v>915293</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1029443</v>
+        <v>1030102</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2751053729370907</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2581683647741629</v>
+        <v>0.259087078475064</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2913989066863691</v>
+        <v>0.2915854168537201</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1972</v>
@@ -3737,19 +3737,19 @@
         <v>1351564</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1295853</v>
+        <v>1300482</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1402069</v>
+        <v>1406232</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3616752394819528</v>
+        <v>0.3616752394819527</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3467670915793669</v>
+        <v>0.3480058426338427</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3751902828424733</v>
+        <v>0.3763044023353341</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2935</v>
@@ -3758,19 +3758,19 @@
         <v>2323446</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2249025</v>
+        <v>2244691</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2412084</v>
+        <v>2404844</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3196060962298656</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3093690547115311</v>
+        <v>0.308772793250934</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3317989235361497</v>
+        <v>0.3308029780284532</v>
       </c>
     </row>
     <row r="23">
